--- a/biology/Botanique/Syndicat_national_de_la_sylviculture_SNS-CSN/Syndicat_national_de_la_sylviculture_SNS-CSN.xlsx
+++ b/biology/Botanique/Syndicat_national_de_la_sylviculture_SNS-CSN/Syndicat_national_de_la_sylviculture_SNS-CSN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Syndicat national de la sylviculture est un syndicat à sections. Celles-ci sont présentes sur une bonne partie du territoire québécois. Il compte plus de 850 membres et représente différents métiers de la sylviculture tels que : planteur, débroussailleur, abatteur. 
 </t>
@@ -511,7 +523,9 @@
           <t>Mission</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndicat intervient régulièrement, dans plusieurs sections, auprès des employeurs qui ne respectent pas les conventions collectives conclues, entre autres en ce qui a trait aux lois en
 matière de santé et sécurité au travail, en assurance emploi, au code du travail et aux normes minimales du travail. Il a aussi déposé des griefs pour réclamer une rémunération lors des déplacements que les travailleurs ont à effectuer durant leur travail.
@@ -543,7 +557,9 @@
           <t>Affiliation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Syndicat national de la sylviculture SNS-CSN est affilié à la Confédération des syndicats nationaux, à la Fédération des travailleurs du papier et de la forêt ainsi qu'à plusieurs conseils centraux de la CSN.
 </t>
@@ -574,7 +590,9 @@
           <t>Siège social</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le siège social du syndicat est situé au 124, rue Sainte-Marie à Rimouski dans l'édifice du Conseil central du Bas-Saint-Laurent CSN.
 </t>
@@ -605,7 +623,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1999, les travailleurs sylvicoles du Québec en ont assez car depuis plus de 15 ans ils se sentent considérés comme des travailleurs de derniers recours, sans reconnaissance, et ayant à subir des conditions de travail inacceptables. La Confédération des syndicats nationaux et la Fédération des travailleurs du papier et de la forêt FTPF-CSN décident de les aider en lançant une campagne de syndicalisation dans toutes les régions où des travaux sylvicoles sont
 effectués. 
@@ -647,7 +667,9 @@
           <t>Présidence actuelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'actuel président du SNS-CSN est René Martel, planteur de métier, débroussailleur et abatteur manuel.
  Portail du Québec   Portail du syndicalisme   Portail du bois et de la forêt                   </t>
